--- a/Gopt1_dodatkowe.xlsx
+++ b/Gopt1_dodatkowe.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eryk\Dysk Google\Dokumenty\Praca\Artykuły_publikacje\Rozprawa\GitHub\Kaliop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Politechnika Koszalińska\Dokumenty\Praca\Artykuły_publikacje\Rozprawa\GitHub\Kaliop_v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
   </bookViews>
   <sheets>
-    <sheet name="Gopt1" sheetId="1" r:id="rId1"/>
+    <sheet name="Gopt1_dodatkowe" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="158">
   <si>
     <t>Pracownik 36</t>
   </si>
@@ -612,14 +612,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -914,73 +914,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:119" x14ac:dyDescent="0.25">
-      <c r="B1" s="7"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="8"/>
-      <c r="AJ1" s="8"/>
-      <c r="AK1" s="8"/>
-      <c r="AL1" s="8"/>
-      <c r="AM1" s="8"/>
-      <c r="AN1" s="8"/>
-      <c r="AO1" s="8"/>
-      <c r="AP1" s="8"/>
-      <c r="AQ1" s="8"/>
-      <c r="AR1" s="8"/>
-      <c r="AS1" s="8"/>
-      <c r="AT1" s="8"/>
-      <c r="AU1" s="8"/>
-      <c r="AV1" s="8"/>
-      <c r="AW1" s="8"/>
-      <c r="AX1" s="8"/>
-      <c r="AY1" s="8"/>
-      <c r="AZ1" s="8"/>
-      <c r="BA1" s="8"/>
-      <c r="BB1" s="8"/>
-      <c r="BC1" s="8"/>
-      <c r="BD1" s="8"/>
-      <c r="BE1" s="8"/>
-      <c r="BF1" s="8"/>
-      <c r="BG1" s="8"/>
-      <c r="BH1" s="8"/>
-      <c r="BI1" s="8"/>
-      <c r="BJ1" s="8"/>
-      <c r="BK1" s="8"/>
-      <c r="BL1" s="8"/>
-      <c r="BM1" s="8"/>
-      <c r="BN1" s="8"/>
-      <c r="BO1" s="8"/>
-      <c r="BP1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="9"/>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="9"/>
+      <c r="AM1" s="9"/>
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="9"/>
+      <c r="AP1" s="9"/>
+      <c r="AQ1" s="9"/>
+      <c r="AR1" s="9"/>
+      <c r="AS1" s="9"/>
+      <c r="AT1" s="9"/>
+      <c r="AU1" s="9"/>
+      <c r="AV1" s="9"/>
+      <c r="AW1" s="9"/>
+      <c r="AX1" s="9"/>
+      <c r="AY1" s="9"/>
+      <c r="AZ1" s="9"/>
+      <c r="BA1" s="9"/>
+      <c r="BB1" s="9"/>
+      <c r="BC1" s="9"/>
+      <c r="BD1" s="9"/>
+      <c r="BE1" s="9"/>
+      <c r="BF1" s="9"/>
+      <c r="BG1" s="9"/>
+      <c r="BH1" s="9"/>
+      <c r="BI1" s="9"/>
+      <c r="BJ1" s="9"/>
+      <c r="BK1" s="9"/>
+      <c r="BL1" s="9"/>
+      <c r="BM1" s="9"/>
+      <c r="BN1" s="9"/>
+      <c r="BO1" s="9"/>
+      <c r="BP1" s="9"/>
     </row>
     <row r="2" spans="1:119" s="4" customFormat="1" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -1310,34 +1310,34 @@
       <c r="DE2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="DF2" s="9" t="s">
+      <c r="DF2" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="DG2" s="9" t="s">
+      <c r="DG2" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="DH2" s="9" t="s">
+      <c r="DH2" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="DI2" s="9" t="s">
+      <c r="DI2" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="DJ2" s="9" t="s">
+      <c r="DJ2" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="DK2" s="9" t="s">
+      <c r="DK2" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="DL2" s="9" t="s">
+      <c r="DL2" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="DM2" s="9" t="s">
+      <c r="DM2" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="DN2" s="9" t="s">
+      <c r="DN2" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="DO2" s="9" t="s">
+      <c r="DO2" s="7" t="s">
         <v>157</v>
       </c>
     </row>
@@ -1408,7 +1408,7 @@
       <c r="V3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="W3" s="2">
+      <c r="W3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="X3" s="2">
@@ -1519,7 +1519,7 @@
       <c r="BG3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="BH3" s="2">
+      <c r="BH3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="BI3" s="2" t="s">
@@ -1579,13 +1579,13 @@
       <c r="CA3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="CB3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="CC3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="CD3" s="2" t="s">
+      <c r="CB3" s="2">
+        <v>1</v>
+      </c>
+      <c r="CC3" s="2">
+        <v>1</v>
+      </c>
+      <c r="CD3" s="2">
         <v>1</v>
       </c>
       <c r="CE3" s="2" t="s">
@@ -1648,7 +1648,7 @@
       <c r="CX3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="CY3" s="2" t="s">
+      <c r="CY3" s="2">
         <v>1</v>
       </c>
       <c r="CZ3" s="2" t="s">
@@ -2120,7 +2120,7 @@
       <c r="T5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="U5" s="2">
+      <c r="U5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="V5" s="2">
@@ -2150,7 +2150,7 @@
       <c r="AD5" s="2">
         <v>0</v>
       </c>
-      <c r="AE5" s="2">
+      <c r="AE5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="AF5" s="2" t="s">
@@ -2458,7 +2458,7 @@
       <c r="M6" s="2">
         <v>1</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="O6" s="2" t="s">
@@ -2979,7 +2979,7 @@
       <c r="BO7" s="2">
         <v>1</v>
       </c>
-      <c r="BP7" s="2">
+      <c r="BP7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="BQ7" s="2">
@@ -3045,7 +3045,7 @@
       <c r="CK7" s="2">
         <v>1</v>
       </c>
-      <c r="CL7" s="2">
+      <c r="CL7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="CM7" s="2">
@@ -3269,7 +3269,7 @@
       <c r="AR8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AS8" s="2">
+      <c r="AS8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="AT8" s="2">
@@ -3505,7 +3505,7 @@
       <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E9" s="2">
@@ -3637,7 +3637,7 @@
       <c r="AU9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AV9" s="2">
+      <c r="AV9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="AW9" s="2" t="s">
@@ -3706,7 +3706,7 @@
       <c r="BR9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="BS9" s="2">
+      <c r="BS9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="BT9" s="2" t="s">
@@ -4747,7 +4747,7 @@
       <c r="BF12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="BG12" s="2">
+      <c r="BG12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="BH12" s="2" t="s">
@@ -5450,7 +5450,7 @@
       <c r="BA14" s="2">
         <v>0</v>
       </c>
-      <c r="BB14" s="2">
+      <c r="BB14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="BC14" s="2" t="s">
@@ -6060,7 +6060,7 @@
       <c r="Q16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="R16" s="2">
+      <c r="R16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="S16" s="2">
@@ -6222,7 +6222,7 @@
       <c r="BS16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="BT16" s="2">
+      <c r="BT16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="BU16" s="2" t="s">
@@ -6808,8 +6808,8 @@
       <c r="AA18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AB18" s="2" t="s">
-        <v>7</v>
+      <c r="AB18" s="2">
+        <v>1</v>
       </c>
       <c r="AC18" s="2">
         <v>0</v>
@@ -6877,7 +6877,7 @@
       <c r="AX18" s="2">
         <v>1</v>
       </c>
-      <c r="AY18" s="2">
+      <c r="AY18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="AZ18" s="2" t="s">
@@ -6994,7 +6994,7 @@
       <c r="CK18" s="2">
         <v>1</v>
       </c>
-      <c r="CL18" s="2">
+      <c r="CL18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="CM18" s="2" t="s">
@@ -7873,7 +7873,7 @@
       <c r="W21" s="2">
         <v>1</v>
       </c>
-      <c r="X21" s="2">
+      <c r="X21" s="2" t="s">
         <v>1</v>
       </c>
       <c r="Y21" s="2" t="s">
@@ -7903,7 +7903,7 @@
       <c r="AG21" s="2">
         <v>0</v>
       </c>
-      <c r="AH21" s="2">
+      <c r="AH21" s="2" t="s">
         <v>1</v>
       </c>
       <c r="AI21" s="2" t="s">
@@ -8175,7 +8175,7 @@
       <c r="D22" s="2">
         <v>1</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F22" s="2">
@@ -8561,7 +8561,7 @@
       <c r="M23" s="2">
         <v>1</v>
       </c>
-      <c r="N23" s="2">
+      <c r="N23" s="2" t="s">
         <v>1</v>
       </c>
       <c r="O23" s="2">
@@ -8905,7 +8905,7 @@
       <c r="H24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J24" s="2">
@@ -9049,19 +9049,19 @@
       <c r="BD24" s="2">
         <v>1</v>
       </c>
-      <c r="BE24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="BF24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="BG24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="BH24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="BI24" s="2" t="s">
+      <c r="BE24" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF24" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG24" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH24" s="2">
+        <v>1</v>
+      </c>
+      <c r="BI24" s="2">
         <v>1</v>
       </c>
       <c r="BJ24" s="2">
@@ -9109,10 +9109,10 @@
       <c r="BX24" s="2">
         <v>1</v>
       </c>
-      <c r="BY24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="BZ24" s="2" t="s">
+      <c r="BY24" s="2">
+        <v>1</v>
+      </c>
+      <c r="BZ24" s="2">
         <v>1</v>
       </c>
       <c r="CA24" s="2">
@@ -9166,19 +9166,19 @@
       <c r="CQ24" s="2">
         <v>0</v>
       </c>
-      <c r="CR24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="CS24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="CT24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="CU24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="CV24" s="2" t="s">
+      <c r="CR24" s="2">
+        <v>1</v>
+      </c>
+      <c r="CS24" s="2">
+        <v>1</v>
+      </c>
+      <c r="CT24" s="2">
+        <v>1</v>
+      </c>
+      <c r="CU24" s="2">
+        <v>1</v>
+      </c>
+      <c r="CV24" s="2">
         <v>1</v>
       </c>
       <c r="CW24" s="2">
@@ -9288,7 +9288,7 @@
       <c r="P25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q25" s="2">
+      <c r="Q25" s="2" t="s">
         <v>1</v>
       </c>
       <c r="R25" s="2" t="s">
@@ -9516,7 +9516,7 @@
       <c r="CN25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="CO25" s="2">
+      <c r="CO25" s="2" t="s">
         <v>1</v>
       </c>
       <c r="CP25" s="2" t="s">
@@ -10485,7 +10485,7 @@
       <c r="BD28" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="BE28" s="2" t="s">
+      <c r="BE28" s="2">
         <v>1</v>
       </c>
       <c r="BF28" s="2" t="s">
@@ -10614,7 +10614,7 @@
       <c r="CU28" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="CV28" s="2">
+      <c r="CV28" s="2" t="s">
         <v>1</v>
       </c>
       <c r="CW28" s="2">
@@ -11831,8 +11831,8 @@
       <c r="Z32" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AA32" s="2">
-        <v>1</v>
+      <c r="AA32" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="AB32" s="2">
         <v>1</v>
@@ -12250,7 +12250,7 @@
       <c r="AT33" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AU33" s="2">
+      <c r="AU33" s="2" t="s">
         <v>1</v>
       </c>
       <c r="AV33" s="2" t="s">
@@ -12361,7 +12361,7 @@
       <c r="CE33" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="CF33" s="2">
+      <c r="CF33" s="2" t="s">
         <v>1</v>
       </c>
       <c r="CG33" s="2" t="s">
@@ -12415,7 +12415,7 @@
       <c r="CW33" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="CX33" s="2">
+      <c r="CX33" s="2" t="s">
         <v>1</v>
       </c>
       <c r="CY33" s="2" t="s">
@@ -12579,7 +12579,7 @@
       <c r="AJ34" s="2">
         <v>0</v>
       </c>
-      <c r="AK34" s="2">
+      <c r="AK34" s="2" t="s">
         <v>1</v>
       </c>
       <c r="AL34" s="2" t="s">
@@ -12657,7 +12657,7 @@
       <c r="BJ34" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="BK34" s="2">
+      <c r="BK34" s="2" t="s">
         <v>1</v>
       </c>
       <c r="BL34" s="2" t="s">
@@ -13043,7 +13043,7 @@
       <c r="BS35" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="BT35" s="2">
+      <c r="BT35" s="2" t="s">
         <v>1</v>
       </c>
       <c r="BU35" s="2" t="s">
